--- a/insumos/01_estimaciones/correspondencia_dom.xlsx
+++ b/insumos/01_estimaciones/correspondencia_dom.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\INEC\GIT\uso_del_tiempo_2025\insumos\01_estimaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OMAR LLAMBO\Proyectos\uso_del_tiempo_2025\insumos\01_estimaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>01</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Zonas no delimitadas</t>
   </si>
   <si>
-    <t>090150</t>
-  </si>
-  <si>
     <t>Nacional</t>
   </si>
   <si>
@@ -187,6 +184,12 @@
   </si>
   <si>
     <t>dominio</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>0901</t>
   </si>
 </sst>
 </file>
@@ -542,24 +545,24 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -575,7 +578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -583,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -591,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -599,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -607,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -615,7 +618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -623,7 +626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -631,7 +634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -639,7 +642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -647,7 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -655,7 +658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -663,7 +666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -671,7 +674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -679,7 +682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -687,7 +690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -695,7 +698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -703,7 +706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -711,7 +714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -719,7 +722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -727,7 +730,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -735,7 +738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -743,7 +746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -751,23 +754,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>170150</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>999</v>
       </c>
@@ -775,12 +778,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
